--- a/RS01SBPD/Omaha_Cal_Info_RS01SBPD_00001.xlsx
+++ b/RS01SBPD/Omaha_Cal_Info_RS01SBPD_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>CC_hdg_cal</t>
   </si>
   <si>
-    <t>[335, 20, 65, 110, 155, 200, 245, 290]</t>
-  </si>
-  <si>
     <t>CC_hx_cal</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   <si>
     <t>RS01SBPD-DP01A-05-OPTAAC102:  OPTAA-C not deployed due to late delivery.</t>
   </si>
+  <si>
+    <t>[335.0, 20.0, 65.0, 110.0, 155.0, 200.0, 245.0, 290.0]</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +159,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -171,51 +171,62 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -244,7 +255,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +272,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -300,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -523,7 +540,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -533,6 +550,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,19 +854,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +916,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>12</v>
       </c>
@@ -918,10 +936,10 @@
         <v>41904</v>
       </c>
       <c r="G2" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="55">
         <v>2902</v>
@@ -962,19 +980,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="68" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="68" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="60"/>
@@ -1022,7 +1040,7 @@
       <c r="Y2" s="71"/>
       <c r="Z2" s="71"/>
     </row>
-    <row r="3" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1080,7 @@
       <c r="Y3" s="69"/>
       <c r="Z3" s="69"/>
     </row>
-    <row r="4" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>21</v>
       </c>
@@ -1102,7 +1120,7 @@
       <c r="Y4" s="78"/>
       <c r="Z4" s="78"/>
     </row>
-    <row r="5" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77"/>
       <c r="B5" s="63"/>
       <c r="C5" s="62"/>
@@ -1130,7 +1148,7 @@
       <c r="Y5" s="71"/>
       <c r="Z5" s="71"/>
     </row>
-    <row r="6" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="72" t="s">
         <v>23</v>
       </c>
@@ -1143,11 +1161,11 @@
       <c r="D6" s="62">
         <v>1039</v>
       </c>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="98" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="76" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71"/>
@@ -1170,7 +1188,7 @@
       <c r="Y6" s="71"/>
       <c r="Z6" s="71"/>
     </row>
-    <row r="7" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="72" t="s">
         <v>23</v>
       </c>
@@ -1184,10 +1202,10 @@
         <v>1039</v>
       </c>
       <c r="E7" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="76" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="71"/>
@@ -1210,7 +1228,7 @@
       <c r="Y7" s="71"/>
       <c r="Z7" s="71"/>
     </row>
-    <row r="8" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="72" t="s">
         <v>23</v>
       </c>
@@ -1224,10 +1242,10 @@
         <v>1039</v>
       </c>
       <c r="E8" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="76" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="71"/>
       <c r="H8" s="71"/>
@@ -1250,7 +1268,7 @@
       <c r="Y8" s="71"/>
       <c r="Z8" s="71"/>
     </row>
-    <row r="9" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="72" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1308,7 @@
       <c r="Y9" s="69"/>
       <c r="Z9" s="69"/>
     </row>
-    <row r="10" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1348,7 @@
       <c r="Y10" s="78"/>
       <c r="Z10" s="78"/>
     </row>
-    <row r="11" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77"/>
       <c r="B11" s="77"/>
       <c r="C11" s="62"/>
@@ -1358,9 +1376,9 @@
       <c r="Y11" s="78"/>
       <c r="Z11" s="78"/>
     </row>
-    <row r="12" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="61" t="s">
         <v>15</v>
@@ -1372,7 +1390,7 @@
         <v>3099</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="96">
         <v>50</v>
@@ -1398,9 +1416,9 @@
       <c r="Y12" s="78"/>
       <c r="Z12" s="78"/>
     </row>
-    <row r="13" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="61" t="s">
         <v>15</v>
@@ -1412,7 +1430,7 @@
         <v>3099</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="74">
         <v>1.21E-2</v>
@@ -1438,9 +1456,9 @@
       <c r="Y13" s="78"/>
       <c r="Z13" s="78"/>
     </row>
-    <row r="14" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="61" t="s">
         <v>15</v>
@@ -1452,7 +1470,7 @@
         <v>3099</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="96">
         <v>50</v>
@@ -1478,9 +1496,9 @@
       <c r="Y14" s="78"/>
       <c r="Z14" s="78"/>
     </row>
-    <row r="15" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="61" t="s">
         <v>15</v>
@@ -1492,7 +1510,7 @@
         <v>3099</v>
       </c>
       <c r="E15" s="72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="74">
         <v>1.21E-2</v>
@@ -1518,9 +1536,9 @@
       <c r="Y15" s="71"/>
       <c r="Z15" s="71"/>
     </row>
-    <row r="16" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="61" t="s">
         <v>15</v>
@@ -1532,7 +1550,7 @@
         <v>3099</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="96">
         <v>117</v>
@@ -1558,9 +1576,9 @@
       <c r="Y16" s="69"/>
       <c r="Z16" s="69"/>
     </row>
-    <row r="17" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="61" t="s">
         <v>15</v>
@@ -1572,7 +1590,7 @@
         <v>3099</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="96">
         <v>700</v>
@@ -1598,9 +1616,9 @@
       <c r="Y17" s="69"/>
       <c r="Z17" s="69"/>
     </row>
-    <row r="18" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="61" t="s">
         <v>15</v>
@@ -1612,7 +1630,7 @@
         <v>3099</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="95">
         <v>1.08</v>
@@ -1638,9 +1656,9 @@
       <c r="Y18" s="69"/>
       <c r="Z18" s="69"/>
     </row>
-    <row r="19" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="61" t="s">
         <v>15</v>
@@ -1652,7 +1670,7 @@
         <v>3099</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="94">
         <v>3.9E-2</v>
@@ -1678,7 +1696,7 @@
       <c r="Y19" s="69"/>
       <c r="Z19" s="69"/>
     </row>
-    <row r="20" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77"/>
       <c r="B20" s="72"/>
       <c r="C20" s="62"/>
@@ -1706,9 +1724,9 @@
       <c r="Y20" s="69"/>
       <c r="Z20" s="69"/>
     </row>
-    <row r="21" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="61" t="s">
         <v>15</v>
@@ -1720,7 +1738,7 @@
         <v>3098</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="97">
         <v>61</v>
@@ -1746,9 +1764,9 @@
       <c r="Y21" s="69"/>
       <c r="Z21" s="69"/>
     </row>
-    <row r="22" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="61" t="s">
         <v>15</v>
@@ -1760,7 +1778,7 @@
         <v>3098</v>
       </c>
       <c r="E22" s="80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="74">
         <v>3.0700000000000002E-2</v>
@@ -1786,7 +1804,7 @@
       <c r="Y22" s="69"/>
       <c r="Z22" s="69"/>
     </row>
-    <row r="23" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81"/>
       <c r="B23" s="82"/>
       <c r="C23" s="83"/>
@@ -1814,7 +1832,7 @@
       <c r="Y23" s="69"/>
       <c r="Z23" s="69"/>
     </row>
-    <row r="24" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
       <c r="C24" s="83"/>
@@ -1822,7 +1840,7 @@
       <c r="E24" s="82"/>
       <c r="F24" s="84"/>
       <c r="G24" s="93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="69"/>
       <c r="I24" s="69"/>
@@ -1844,7 +1862,7 @@
       <c r="Y24" s="69"/>
       <c r="Z24" s="69"/>
     </row>
-    <row r="25" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81"/>
       <c r="B25" s="82"/>
       <c r="C25" s="83"/>
@@ -1872,7 +1890,7 @@
       <c r="Y25" s="69"/>
       <c r="Z25" s="69"/>
     </row>
-    <row r="26" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="72" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1930,7 @@
       <c r="Y26" s="71"/>
       <c r="Z26" s="71"/>
     </row>
-    <row r="27" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="72" t="s">
         <v>18</v>
       </c>
@@ -1952,7 +1970,7 @@
       <c r="Y27" s="71"/>
       <c r="Z27" s="71"/>
     </row>
-    <row r="28" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="75"/>
       <c r="B28" s="63"/>
       <c r="C28" s="62"/>
@@ -1980,7 +1998,7 @@
       <c r="Y28" s="71"/>
       <c r="Z28" s="71"/>
     </row>
-    <row r="29" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
@@ -2008,7 +2026,7 @@
       <c r="Y29" s="71"/>
       <c r="Z29" s="71"/>
     </row>
-    <row r="30" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
       <c r="C30" s="60"/>
@@ -2036,7 +2054,7 @@
       <c r="Y30" s="71"/>
       <c r="Z30" s="71"/>
     </row>
-    <row r="31" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="59"/>
       <c r="C31" s="60"/>
@@ -2064,7 +2082,7 @@
       <c r="Y31" s="71"/>
       <c r="Z31" s="71"/>
     </row>
-    <row r="32" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="59"/>
       <c r="C32" s="60"/>
@@ -2092,7 +2110,7 @@
       <c r="Y32" s="71"/>
       <c r="Z32" s="71"/>
     </row>
-    <row r="33" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
       <c r="B33" s="85"/>
       <c r="C33" s="60"/>
@@ -2120,7 +2138,7 @@
       <c r="Y33" s="71"/>
       <c r="Z33" s="71"/>
     </row>
-    <row r="34" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="85"/>
       <c r="C34" s="60"/>
@@ -2148,7 +2166,7 @@
       <c r="Y34" s="71"/>
       <c r="Z34" s="71"/>
     </row>
-    <row r="35" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="85"/>
       <c r="C35" s="60"/>
@@ -2176,7 +2194,7 @@
       <c r="Y35" s="71"/>
       <c r="Z35" s="71"/>
     </row>
-    <row r="36" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="85"/>
       <c r="C36" s="60"/>
@@ -2204,7 +2222,7 @@
       <c r="Y36" s="71"/>
       <c r="Z36" s="71"/>
     </row>
-    <row r="37" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
       <c r="B37" s="85"/>
       <c r="C37" s="60"/>
@@ -2232,7 +2250,7 @@
       <c r="Y37" s="71"/>
       <c r="Z37" s="71"/>
     </row>
-    <row r="38" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59"/>
       <c r="B38" s="85"/>
       <c r="C38" s="60"/>
@@ -2260,7 +2278,7 @@
       <c r="Y38" s="71"/>
       <c r="Z38" s="71"/>
     </row>
-    <row r="39" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59"/>
       <c r="B39" s="85"/>
       <c r="C39" s="60"/>
@@ -2288,7 +2306,7 @@
       <c r="Y39" s="71"/>
       <c r="Z39" s="71"/>
     </row>
-    <row r="40" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="86"/>
       <c r="B40" s="85"/>
       <c r="C40" s="60"/>
@@ -2316,7 +2334,7 @@
       <c r="Y40" s="71"/>
       <c r="Z40" s="71"/>
     </row>
-    <row r="41" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59"/>
       <c r="B41" s="85"/>
       <c r="C41" s="60"/>
@@ -2344,7 +2362,7 @@
       <c r="Y41" s="71"/>
       <c r="Z41" s="71"/>
     </row>
-    <row r="42" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59"/>
       <c r="B42" s="85"/>
       <c r="C42" s="60"/>
@@ -2372,7 +2390,7 @@
       <c r="Y42" s="71"/>
       <c r="Z42" s="71"/>
     </row>
-    <row r="43" spans="1:26" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="59"/>
       <c r="B43" s="85"/>
       <c r="C43" s="60"/>
@@ -2400,7 +2418,7 @@
       <c r="Y43" s="71"/>
       <c r="Z43" s="71"/>
     </row>
-    <row r="44" spans="1:26" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="85"/>
       <c r="C44" s="60"/>
@@ -2428,7 +2446,7 @@
       <c r="Y44" s="71"/>
       <c r="Z44" s="71"/>
     </row>
-    <row r="45" spans="1:26" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="59"/>
       <c r="B45" s="85"/>
       <c r="C45" s="60"/>
@@ -2456,7 +2474,7 @@
       <c r="Y45" s="71"/>
       <c r="Z45" s="71"/>
     </row>
-    <row r="46" spans="1:26" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="59"/>
       <c r="B46" s="85"/>
       <c r="C46" s="60"/>
@@ -2484,7 +2502,7 @@
       <c r="Y46" s="71"/>
       <c r="Z46" s="71"/>
     </row>
-    <row r="47" spans="1:26" s="68" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" s="68" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
       <c r="B47" s="85"/>
       <c r="C47" s="60"/>
@@ -2512,7 +2530,7 @@
       <c r="Y47" s="71"/>
       <c r="Z47" s="71"/>
     </row>
-    <row r="48" spans="1:26" s="68" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" s="68" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="69"/>
       <c r="B48" s="59"/>
       <c r="C48" s="60"/>
@@ -2540,7 +2558,7 @@
       <c r="Y48" s="71"/>
       <c r="Z48" s="71"/>
     </row>
-    <row r="49" spans="1:26" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="69"/>
       <c r="B49" s="69"/>
       <c r="C49" s="90"/>
@@ -2568,7 +2586,7 @@
       <c r="Y49" s="71"/>
       <c r="Z49" s="71"/>
     </row>
-    <row r="50" spans="1:26" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="69"/>
       <c r="B50" s="78"/>
       <c r="C50" s="78"/>
@@ -2596,7 +2614,7 @@
       <c r="Y50" s="71"/>
       <c r="Z50" s="71"/>
     </row>
-    <row r="51" spans="1:26" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" s="68" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="69"/>
       <c r="B51" s="78"/>
       <c r="C51" s="78"/>
@@ -2624,7 +2642,7 @@
       <c r="Y51" s="71"/>
       <c r="Z51" s="71"/>
     </row>
-    <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="5"/>
@@ -2652,7 +2670,7 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
     </row>
-    <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="5"/>
@@ -2680,7 +2698,7 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
     </row>
-    <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="5"/>
@@ -2708,7 +2726,7 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="15"/>
       <c r="C55" s="5"/>
@@ -2736,7 +2754,7 @@
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2764,7 +2782,7 @@
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="29"/>
       <c r="C57" s="26"/>
@@ -2792,7 +2810,7 @@
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
     </row>
-    <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="29"/>
       <c r="C58" s="26"/>
@@ -2820,7 +2838,7 @@
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
     </row>
-    <row r="59" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
@@ -2848,7 +2866,7 @@
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
     </row>
-    <row r="60" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="29"/>
       <c r="C60" s="26"/>
@@ -2876,7 +2894,7 @@
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="29"/>
       <c r="C61" s="26"/>
@@ -2904,7 +2922,7 @@
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="7"/>
       <c r="C62" s="23"/>
@@ -2932,7 +2950,7 @@
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -2960,7 +2978,7 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
     </row>
-    <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -2988,7 +3006,7 @@
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
     </row>
-    <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="7"/>
       <c r="C65" s="23"/>
@@ -3016,7 +3034,7 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
     </row>
-    <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -3044,7 +3062,7 @@
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
     </row>
-    <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -3072,7 +3090,7 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
     </row>
-    <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="7"/>
       <c r="C68" s="23"/>
@@ -3100,7 +3118,7 @@
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
     </row>
-    <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -3128,7 +3146,7 @@
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
     </row>
-    <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -3156,7 +3174,7 @@
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
     </row>
-    <row r="71" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="9"/>
       <c r="C71" s="4"/>
@@ -3184,7 +3202,7 @@
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
     </row>
-    <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="10"/>
@@ -3212,7 +3230,7 @@
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
     </row>
-    <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="10"/>
@@ -3240,7 +3258,7 @@
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
     </row>
-    <row r="74" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="9"/>
       <c r="C74" s="4"/>
@@ -3268,7 +3286,7 @@
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
     </row>
-    <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -3296,7 +3314,7 @@
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
     </row>
-    <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
@@ -3324,7 +3342,7 @@
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
     </row>
-    <row r="77" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="9"/>
       <c r="C77" s="4"/>
@@ -3352,7 +3370,7 @@
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
     </row>
-    <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
@@ -3380,7 +3398,7 @@
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
     </row>
-    <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
@@ -3408,7 +3426,7 @@
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
     </row>
-    <row r="80" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="9"/>
       <c r="C80" s="4"/>
@@ -3436,7 +3454,7 @@
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
     </row>
-    <row r="81" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="13"/>
       <c r="C81" s="4"/>
@@ -3464,7 +3482,7 @@
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
     </row>
-    <row r="82" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="13"/>
       <c r="C82" s="4"/>
@@ -3492,7 +3510,7 @@
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
     </row>
-    <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="13"/>
       <c r="C83" s="4"/>
@@ -3520,7 +3538,7 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
     </row>
-    <row r="84" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="13"/>
       <c r="C84" s="4"/>
@@ -3548,7 +3566,7 @@
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
     </row>
-    <row r="85" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="13"/>
       <c r="C85" s="4"/>
@@ -3576,7 +3594,7 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
     </row>
-    <row r="86" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="9"/>
       <c r="C86" s="4"/>
@@ -3604,7 +3622,7 @@
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
     </row>
-    <row r="87" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="10"/>
@@ -3632,7 +3650,7 @@
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
     </row>
-    <row r="88" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="10"/>
@@ -3660,7 +3678,7 @@
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
     </row>
-    <row r="89" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="10"/>
@@ -3688,7 +3706,7 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="10"/>
@@ -3716,7 +3734,7 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="10"/>
@@ -3744,7 +3762,7 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
     </row>
-    <row r="92" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="9"/>
       <c r="C92" s="4"/>
@@ -3772,7 +3790,7 @@
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
     </row>
-    <row r="93" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="9"/>
       <c r="C93" s="4"/>
@@ -3800,7 +3818,7 @@
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
     </row>
-    <row r="94" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="13"/>
       <c r="C94" s="4"/>
@@ -3828,7 +3846,7 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="13"/>
       <c r="C95" s="4"/>
@@ -3856,7 +3874,7 @@
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
     </row>
-    <row r="96" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="9"/>
       <c r="C96" s="4"/>
@@ -3884,7 +3902,7 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="9"/>
       <c r="C97" s="10"/>
@@ -3912,7 +3930,7 @@
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
     </row>
-    <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="9"/>
       <c r="C98" s="10"/>
@@ -3940,7 +3958,7 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
     </row>
-    <row r="99" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="9"/>
       <c r="C99" s="10"/>
@@ -3968,7 +3986,7 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
     </row>
-    <row r="100" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="9"/>
       <c r="C100" s="4"/>
@@ -3996,7 +4014,7 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -4024,7 +4042,7 @@
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
     </row>
-    <row r="102" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -4052,7 +4070,7 @@
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
     </row>
-    <row r="103" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
@@ -4080,7 +4098,7 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
     </row>
-    <row r="104" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4"/>
@@ -4108,7 +4126,7 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
     </row>
-    <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
@@ -4136,7 +4154,7 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
     </row>
-    <row r="106" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="4"/>
@@ -4164,7 +4182,7 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -4192,7 +4210,7 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
@@ -4220,7 +4238,7 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -4248,7 +4266,7 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -4276,7 +4294,7 @@
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
@@ -4304,7 +4322,7 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -4332,7 +4350,7 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
     </row>
-    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -4360,7 +4378,7 @@
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
     </row>
-    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
@@ -4388,7 +4406,7 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -4416,7 +4434,7 @@
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -4444,7 +4462,7 @@
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -4472,7 +4490,7 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -4500,7 +4518,7 @@
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
@@ -4528,7 +4546,7 @@
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -4556,7 +4574,7 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
@@ -4584,7 +4602,7 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
     </row>
-    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
@@ -4612,7 +4630,7 @@
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
     </row>
-    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
@@ -4640,7 +4658,7 @@
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
     </row>
-    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -4668,7 +4686,7 @@
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
     </row>
-    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -4696,7 +4714,7 @@
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
     </row>
-    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -4724,7 +4742,7 @@
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
     </row>
-    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -4752,7 +4770,7 @@
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="24"/>
@@ -4780,7 +4798,7 @@
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
     </row>
-    <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
@@ -4808,7 +4826,7 @@
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
     </row>
-    <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="9"/>
       <c r="C130" s="4"/>
@@ -4836,7 +4854,7 @@
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="24"/>
@@ -4864,7 +4882,7 @@
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
     </row>
-    <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -4892,7 +4910,7 @@
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
     </row>
-    <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
@@ -4920,7 +4938,7 @@
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="5"/>
       <c r="C134" s="24"/>
@@ -4948,7 +4966,7 @@
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
     </row>
-    <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="14"/>
       <c r="C135" s="4"/>
@@ -4976,7 +4994,7 @@
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
     </row>
-    <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="14"/>
       <c r="C136" s="4"/>
@@ -5004,7 +5022,7 @@
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="24"/>
@@ -5032,7 +5050,7 @@
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
     </row>
-    <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
@@ -5060,7 +5078,7 @@
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
     </row>
-    <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
@@ -5088,7 +5106,7 @@
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="26"/>
       <c r="C140" s="27"/>
@@ -5116,7 +5134,7 @@
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
     </row>
-    <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="36"/>
       <c r="C141" s="4"/>
@@ -5144,7 +5162,7 @@
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
     </row>
-    <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="36"/>
       <c r="C142" s="4"/>
@@ -5172,7 +5190,7 @@
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="26"/>
       <c r="C143" s="27"/>
@@ -5200,7 +5218,7 @@
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
     </row>
-    <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="36"/>
       <c r="C144" s="4"/>
@@ -5228,7 +5246,7 @@
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
     </row>
-    <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="36"/>
       <c r="C145" s="4"/>
@@ -5256,7 +5274,7 @@
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="26"/>
       <c r="C146" s="27"/>
@@ -5284,7 +5302,7 @@
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
     </row>
-    <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
@@ -5312,7 +5330,7 @@
       <c r="Y147" s="7"/>
       <c r="Z147" s="7"/>
     </row>
-    <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
@@ -5340,7 +5358,7 @@
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="26"/>
       <c r="C149" s="27"/>
@@ -5368,7 +5386,7 @@
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
     </row>
-    <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="9"/>
       <c r="C150" s="4"/>
@@ -5396,7 +5414,7 @@
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
     </row>
-    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="9"/>
       <c r="C151" s="4"/>
@@ -5424,7 +5442,7 @@
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="26"/>
       <c r="C152" s="27"/>
@@ -5452,7 +5470,7 @@
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
     </row>
-    <row r="153" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
@@ -5480,7 +5498,7 @@
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
     </row>
-    <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="4"/>
@@ -5508,7 +5526,7 @@
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="23"/>
@@ -5536,7 +5554,7 @@
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="7"/>
       <c r="C156" s="23"/>
@@ -5564,7 +5582,7 @@
       <c r="Y156" s="7"/>
       <c r="Z156" s="7"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="23"/>
@@ -5592,7 +5610,7 @@
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="23"/>
@@ -5620,7 +5638,7 @@
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="3"/>
       <c r="C159" s="4"/>
@@ -5648,7 +5666,7 @@
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
@@ -5676,7 +5694,7 @@
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="3"/>
       <c r="C161" s="4"/>
@@ -5704,7 +5722,7 @@
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="3"/>
       <c r="C162" s="4"/>
@@ -5732,7 +5750,7 @@
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="23"/>
@@ -5760,7 +5778,7 @@
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
     </row>
-    <row r="164" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
       <c r="B164" s="3"/>
       <c r="C164" s="4"/>
@@ -5788,7 +5806,7 @@
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
     </row>
-    <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
       <c r="B165" s="3"/>
       <c r="C165" s="4"/>
@@ -5816,7 +5834,7 @@
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
       <c r="B166" s="3"/>
       <c r="C166" s="4"/>
@@ -5844,7 +5862,7 @@
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="3"/>
       <c r="C167" s="4"/>
@@ -5872,7 +5890,7 @@
       <c r="Y167" s="7"/>
       <c r="Z167" s="7"/>
     </row>
-    <row r="168" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="3"/>
       <c r="C168" s="4"/>
@@ -5900,7 +5918,7 @@
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
     </row>
-    <row r="169" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="3"/>
       <c r="C169" s="4"/>
@@ -5928,7 +5946,7 @@
       <c r="Y169" s="7"/>
       <c r="Z169" s="7"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
       <c r="B170" s="3"/>
       <c r="C170" s="4"/>
@@ -5956,7 +5974,7 @@
       <c r="Y170" s="7"/>
       <c r="Z170" s="7"/>
     </row>
-    <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="10"/>
@@ -5984,7 +6002,7 @@
       <c r="Y171" s="7"/>
       <c r="Z171" s="7"/>
     </row>
-    <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="10"/>
@@ -6012,7 +6030,7 @@
       <c r="Y172" s="7"/>
       <c r="Z172" s="7"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="10"/>
@@ -6040,7 +6058,7 @@
       <c r="Y173" s="7"/>
       <c r="Z173" s="7"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="10"/>
@@ -6068,7 +6086,7 @@
       <c r="Y174" s="7"/>
       <c r="Z174" s="7"/>
     </row>
-    <row r="175" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="10"/>
@@ -6096,7 +6114,7 @@
       <c r="Y175" s="7"/>
       <c r="Z175" s="7"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="10"/>
@@ -6124,7 +6142,7 @@
       <c r="Y176" s="7"/>
       <c r="Z176" s="7"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="23"/>
@@ -6152,7 +6170,7 @@
       <c r="Y177" s="7"/>
       <c r="Z177" s="7"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
       <c r="B178" s="3"/>
       <c r="C178" s="38"/>
@@ -6180,7 +6198,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
       <c r="B179" s="3"/>
       <c r="C179" s="38"/>
@@ -6208,7 +6226,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
       <c r="B180" s="3"/>
       <c r="C180" s="38"/>
@@ -6236,7 +6254,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
       <c r="B181" s="3"/>
       <c r="C181" s="38"/>
@@ -6264,7 +6282,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
       <c r="B182" s="3"/>
       <c r="C182" s="38"/>
@@ -6292,7 +6310,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
       <c r="B183" s="3"/>
       <c r="C183" s="38"/>
@@ -6320,7 +6338,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
       <c r="B184" s="3"/>
       <c r="C184" s="38"/>
@@ -6348,7 +6366,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
       <c r="B185" s="3"/>
       <c r="C185" s="38"/>
@@ -6376,7 +6394,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="23"/>
@@ -6404,7 +6422,7 @@
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="39"/>
       <c r="C187" s="40"/>
@@ -6432,7 +6450,7 @@
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="39"/>
       <c r="C188" s="40"/>
@@ -6460,7 +6478,7 @@
       <c r="Y188" s="7"/>
       <c r="Z188" s="7"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="39"/>
       <c r="C189" s="40"/>
@@ -6488,7 +6506,7 @@
       <c r="Y189" s="7"/>
       <c r="Z189" s="7"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="39"/>
       <c r="C190" s="40"/>
@@ -6516,7 +6534,7 @@
       <c r="Y190" s="7"/>
       <c r="Z190" s="7"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="39"/>
       <c r="C191" s="40"/>
@@ -6544,7 +6562,7 @@
       <c r="Y191" s="7"/>
       <c r="Z191" s="7"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="39"/>
       <c r="C192" s="40"/>
@@ -6572,7 +6590,7 @@
       <c r="Y192" s="7"/>
       <c r="Z192" s="7"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="43"/>
       <c r="B193" s="44"/>
       <c r="C193" s="45"/>
@@ -6600,7 +6618,7 @@
       <c r="Y193" s="7"/>
       <c r="Z193" s="7"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="43"/>
       <c r="B194" s="47"/>
       <c r="C194" s="45"/>
@@ -6628,7 +6646,7 @@
       <c r="Y194" s="7"/>
       <c r="Z194" s="7"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="23"/>
@@ -6656,7 +6674,7 @@
       <c r="Y195" s="7"/>
       <c r="Z195" s="7"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="43"/>
       <c r="B196" s="43"/>
       <c r="C196" s="45"/>
@@ -6684,7 +6702,7 @@
       <c r="Y196" s="7"/>
       <c r="Z196" s="7"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="43"/>
       <c r="B197" s="43"/>
       <c r="C197" s="45"/>
@@ -6712,7 +6730,7 @@
       <c r="Y197" s="7"/>
       <c r="Z197" s="7"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="43"/>
       <c r="B198" s="43"/>
       <c r="C198" s="45"/>
@@ -6740,7 +6758,7 @@
       <c r="Y198" s="7"/>
       <c r="Z198" s="7"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="43"/>
       <c r="B199" s="43"/>
       <c r="C199" s="45"/>
@@ -6768,7 +6786,7 @@
       <c r="Y199" s="7"/>
       <c r="Z199" s="7"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="43"/>
       <c r="B200" s="43"/>
       <c r="C200" s="45"/>
@@ -6796,7 +6814,7 @@
       <c r="Y200" s="7"/>
       <c r="Z200" s="7"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="43"/>
       <c r="B201" s="43"/>
       <c r="C201" s="45"/>
@@ -6824,7 +6842,7 @@
       <c r="Y201" s="7"/>
       <c r="Z201" s="7"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="43"/>
       <c r="B202" s="43"/>
       <c r="C202" s="45"/>
@@ -6852,7 +6870,7 @@
       <c r="Y202" s="7"/>
       <c r="Z202" s="7"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="48"/>
       <c r="B203" s="48"/>
       <c r="C203" s="38"/>
@@ -6880,7 +6898,7 @@
       <c r="Y203" s="7"/>
       <c r="Z203" s="7"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="23"/>
@@ -6908,7 +6926,7 @@
       <c r="Y204" s="7"/>
       <c r="Z204" s="7"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="39"/>
       <c r="C205" s="40"/>
@@ -6936,7 +6954,7 @@
       <c r="Y205" s="7"/>
       <c r="Z205" s="7"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="43"/>
       <c r="B206" s="47"/>
       <c r="C206" s="45"/>
@@ -6964,7 +6982,7 @@
       <c r="Y206" s="7"/>
       <c r="Z206" s="7"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="43"/>
       <c r="B207" s="47"/>
       <c r="C207" s="45"/>
@@ -6992,7 +7010,7 @@
       <c r="Y207" s="7"/>
       <c r="Z207" s="7"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="43"/>
       <c r="B208" s="47"/>
       <c r="C208" s="45"/>
@@ -7020,7 +7038,7 @@
       <c r="Y208" s="7"/>
       <c r="Z208" s="7"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="43"/>
       <c r="B209" s="47"/>
       <c r="C209" s="45"/>
@@ -7048,7 +7066,7 @@
       <c r="Y209" s="7"/>
       <c r="Z209" s="7"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="43"/>
       <c r="B210" s="47"/>
       <c r="C210" s="45"/>
@@ -7076,7 +7094,7 @@
       <c r="Y210" s="7"/>
       <c r="Z210" s="7"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="43"/>
       <c r="B211" s="47"/>
       <c r="C211" s="45"/>
@@ -7104,7 +7122,7 @@
       <c r="Y211" s="7"/>
       <c r="Z211" s="7"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="43"/>
       <c r="B212" s="47"/>
       <c r="C212" s="45"/>
@@ -7132,7 +7150,7 @@
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="23"/>
@@ -7160,7 +7178,7 @@
       <c r="Y213" s="7"/>
       <c r="Z213" s="7"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="39"/>
       <c r="C214" s="40"/>
@@ -7188,7 +7206,7 @@
       <c r="Y214" s="7"/>
       <c r="Z214" s="7"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="43"/>
       <c r="B215" s="47"/>
       <c r="C215" s="45"/>
@@ -7216,7 +7234,7 @@
       <c r="Y215" s="7"/>
       <c r="Z215" s="7"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="43"/>
       <c r="B216" s="47"/>
       <c r="C216" s="45"/>
@@ -7244,7 +7262,7 @@
       <c r="Y216" s="7"/>
       <c r="Z216" s="7"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="43"/>
       <c r="B217" s="47"/>
       <c r="C217" s="45"/>
@@ -7272,7 +7290,7 @@
       <c r="Y217" s="7"/>
       <c r="Z217" s="7"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="43"/>
       <c r="B218" s="47"/>
       <c r="C218" s="45"/>
@@ -7300,7 +7318,7 @@
       <c r="Y218" s="7"/>
       <c r="Z218" s="7"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="43"/>
       <c r="B219" s="47"/>
       <c r="C219" s="45"/>
@@ -7328,7 +7346,7 @@
       <c r="Y219" s="7"/>
       <c r="Z219" s="7"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="43"/>
       <c r="B220" s="47"/>
       <c r="C220" s="45"/>
@@ -7356,7 +7374,7 @@
       <c r="Y220" s="7"/>
       <c r="Z220" s="7"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="43"/>
       <c r="B221" s="47"/>
       <c r="C221" s="45"/>
@@ -7384,7 +7402,7 @@
       <c r="Y221" s="7"/>
       <c r="Z221" s="7"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="23"/>
@@ -7412,7 +7430,7 @@
       <c r="Y222" s="7"/>
       <c r="Z222" s="7"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="43"/>
       <c r="B223" s="47"/>
       <c r="C223" s="45"/>
@@ -7440,7 +7458,7 @@
       <c r="Y223" s="7"/>
       <c r="Z223" s="7"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="43"/>
       <c r="B224" s="47"/>
       <c r="C224" s="45"/>
@@ -7468,7 +7486,7 @@
       <c r="Y224" s="7"/>
       <c r="Z224" s="7"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="43"/>
       <c r="B225" s="47"/>
       <c r="C225" s="45"/>
@@ -7496,7 +7514,7 @@
       <c r="Y225" s="7"/>
       <c r="Z225" s="7"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="43"/>
       <c r="B226" s="47"/>
       <c r="C226" s="45"/>
@@ -7524,7 +7542,7 @@
       <c r="Y226" s="7"/>
       <c r="Z226" s="7"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="43"/>
       <c r="B227" s="47"/>
       <c r="C227" s="45"/>
@@ -7552,7 +7570,7 @@
       <c r="Y227" s="7"/>
       <c r="Z227" s="7"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="43"/>
       <c r="B228" s="47"/>
       <c r="C228" s="45"/>
@@ -7580,7 +7598,7 @@
       <c r="Y228" s="7"/>
       <c r="Z228" s="7"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="43"/>
       <c r="B229" s="47"/>
       <c r="C229" s="45"/>
@@ -7608,7 +7626,7 @@
       <c r="Y229" s="7"/>
       <c r="Z229" s="7"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="43"/>
       <c r="B230" s="47"/>
       <c r="C230" s="45"/>
@@ -7636,7 +7654,7 @@
       <c r="Y230" s="7"/>
       <c r="Z230" s="7"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="23"/>
@@ -7664,7 +7682,7 @@
       <c r="Y231" s="7"/>
       <c r="Z231" s="7"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="14"/>
       <c r="B232" s="3"/>
       <c r="C232" s="38"/>
@@ -7692,7 +7710,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="14"/>
       <c r="B233" s="3"/>
       <c r="C233" s="38"/>
@@ -7720,7 +7738,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="14"/>
       <c r="B234" s="3"/>
       <c r="C234" s="38"/>
@@ -7748,7 +7766,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="23"/>
@@ -7776,7 +7794,7 @@
       <c r="Y235" s="7"/>
       <c r="Z235" s="7"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="14"/>
       <c r="C236" s="17"/>
@@ -7804,7 +7822,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="14"/>
       <c r="C237" s="17"/>
@@ -7832,7 +7850,7 @@
       <c r="Y237" s="7"/>
       <c r="Z237" s="7"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="14"/>
       <c r="C238" s="17"/>
@@ -7860,7 +7878,7 @@
       <c r="Y238" s="7"/>
       <c r="Z238" s="7"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="23"/>
@@ -7888,7 +7906,7 @@
       <c r="Y239" s="7"/>
       <c r="Z239" s="7"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="14"/>
       <c r="B240" s="9"/>
       <c r="C240" s="4"/>
@@ -7916,7 +7934,7 @@
       <c r="Y240" s="7"/>
       <c r="Z240" s="7"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="14"/>
       <c r="B241" s="9"/>
       <c r="C241" s="4"/>
@@ -7944,7 +7962,7 @@
       <c r="Y241" s="7"/>
       <c r="Z241" s="7"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="14"/>
       <c r="B242" s="9"/>
       <c r="C242" s="4"/>
@@ -7972,7 +7990,7 @@
       <c r="Y242" s="7"/>
       <c r="Z242" s="7"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="14"/>
       <c r="B243" s="9"/>
       <c r="C243" s="4"/>
@@ -8000,7 +8018,7 @@
       <c r="Y243" s="7"/>
       <c r="Z243" s="7"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="14"/>
       <c r="B244" s="9"/>
       <c r="C244" s="4"/>
@@ -8028,7 +8046,7 @@
       <c r="Y244" s="7"/>
       <c r="Z244" s="7"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="14"/>
       <c r="B245" s="9"/>
       <c r="C245" s="4"/>
@@ -8056,7 +8074,7 @@
       <c r="Y245" s="7"/>
       <c r="Z245" s="7"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="24"/>
@@ -8084,7 +8102,7 @@
       <c r="Y246" s="7"/>
       <c r="Z246" s="7"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="14"/>
       <c r="B247" s="3"/>
       <c r="C247" s="4"/>
@@ -8112,7 +8130,7 @@
       <c r="Y247" s="7"/>
       <c r="Z247" s="7"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="14"/>
       <c r="B248" s="3"/>
       <c r="C248" s="4"/>
@@ -8140,7 +8158,7 @@
       <c r="Y248" s="7"/>
       <c r="Z248" s="7"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="14"/>
       <c r="B249" s="3"/>
       <c r="C249" s="4"/>
@@ -8168,7 +8186,7 @@
       <c r="Y249" s="7"/>
       <c r="Z249" s="7"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="14"/>
       <c r="B250" s="3"/>
       <c r="C250" s="4"/>
@@ -8196,7 +8214,7 @@
       <c r="Y250" s="7"/>
       <c r="Z250" s="7"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="14"/>
       <c r="B251" s="3"/>
       <c r="C251" s="4"/>
@@ -8224,7 +8242,7 @@
       <c r="Y251" s="7"/>
       <c r="Z251" s="7"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="14"/>
       <c r="B252" s="3"/>
       <c r="C252" s="4"/>
@@ -8252,7 +8270,7 @@
       <c r="Y252" s="7"/>
       <c r="Z252" s="7"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="24"/>
@@ -8280,7 +8298,7 @@
       <c r="Y253" s="7"/>
       <c r="Z253" s="7"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="4"/>
@@ -8308,7 +8326,7 @@
       <c r="Y254" s="7"/>
       <c r="Z254" s="7"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="4"/>
@@ -8336,7 +8354,7 @@
       <c r="Y255" s="7"/>
       <c r="Z255" s="7"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="3"/>
       <c r="C256" s="4"/>
@@ -8364,7 +8382,7 @@
       <c r="Y256" s="7"/>
       <c r="Z256" s="7"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="4"/>
@@ -8392,7 +8410,7 @@
       <c r="Y257" s="7"/>
       <c r="Z257" s="7"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
       <c r="B258" s="3"/>
       <c r="C258" s="4"/>
@@ -8420,7 +8438,7 @@
       <c r="Y258" s="7"/>
       <c r="Z258" s="7"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="14"/>
       <c r="B259" s="3"/>
       <c r="C259" s="4"/>
@@ -8448,7 +8466,7 @@
       <c r="Y259" s="7"/>
       <c r="Z259" s="7"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="3"/>
       <c r="C260" s="4"/>
@@ -8476,7 +8494,7 @@
       <c r="Y260" s="7"/>
       <c r="Z260" s="7"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="4"/>
@@ -8504,7 +8522,7 @@
       <c r="Y261" s="7"/>
       <c r="Z261" s="7"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="14"/>
       <c r="B262" s="3"/>
       <c r="C262" s="4"/>
@@ -8532,7 +8550,7 @@
       <c r="Y262" s="7"/>
       <c r="Z262" s="7"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="14"/>
       <c r="B263" s="3"/>
       <c r="C263" s="4"/>
@@ -8560,7 +8578,7 @@
       <c r="Y263" s="7"/>
       <c r="Z263" s="7"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="14"/>
       <c r="B264" s="3"/>
       <c r="C264" s="4"/>
@@ -8588,7 +8606,7 @@
       <c r="Y264" s="7"/>
       <c r="Z264" s="7"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
       <c r="B265" s="3"/>
       <c r="C265" s="4"/>
@@ -8616,7 +8634,7 @@
       <c r="Y265" s="7"/>
       <c r="Z265" s="7"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="14"/>
       <c r="B266" s="3"/>
       <c r="C266" s="4"/>
@@ -8644,7 +8662,7 @@
       <c r="Y266" s="7"/>
       <c r="Z266" s="7"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="14"/>
       <c r="B267" s="3"/>
       <c r="C267" s="4"/>
@@ -8672,7 +8690,7 @@
       <c r="Y267" s="7"/>
       <c r="Z267" s="7"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="14"/>
       <c r="B268" s="3"/>
       <c r="C268" s="4"/>
@@ -8700,7 +8718,7 @@
       <c r="Y268" s="7"/>
       <c r="Z268" s="7"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="14"/>
       <c r="B269" s="3"/>
       <c r="C269" s="4"/>
@@ -8728,7 +8746,7 @@
       <c r="Y269" s="7"/>
       <c r="Z269" s="7"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="14"/>
       <c r="B270" s="3"/>
       <c r="C270" s="4"/>
@@ -8756,7 +8774,7 @@
       <c r="Y270" s="7"/>
       <c r="Z270" s="7"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="14"/>
       <c r="B271" s="3"/>
       <c r="C271" s="4"/>
@@ -8784,7 +8802,7 @@
       <c r="Y271" s="7"/>
       <c r="Z271" s="7"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
       <c r="B272" s="3"/>
       <c r="C272" s="4"/>
@@ -8812,7 +8830,7 @@
       <c r="Y272" s="7"/>
       <c r="Z272" s="7"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
       <c r="B273" s="3"/>
       <c r="C273" s="4"/>
@@ -8840,7 +8858,7 @@
       <c r="Y273" s="7"/>
       <c r="Z273" s="7"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="14"/>
       <c r="B274" s="3"/>
       <c r="C274" s="4"/>
@@ -8868,7 +8886,7 @@
       <c r="Y274" s="7"/>
       <c r="Z274" s="7"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="26"/>
       <c r="C275" s="27"/>
@@ -8896,7 +8914,7 @@
       <c r="Y275" s="7"/>
       <c r="Z275" s="7"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="26"/>
       <c r="C276" s="27"/>
@@ -8924,7 +8942,7 @@
       <c r="Y276" s="7"/>
       <c r="Z276" s="7"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="7"/>
       <c r="C277" s="23"/>
@@ -8952,7 +8970,7 @@
       <c r="Y277" s="7"/>
       <c r="Z277" s="7"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="7"/>
       <c r="C278" s="23"/>
@@ -8980,7 +8998,7 @@
       <c r="Y278" s="7"/>
       <c r="Z278" s="7"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="7"/>
       <c r="C279" s="23"/>
@@ -9008,7 +9026,7 @@
       <c r="Y279" s="7"/>
       <c r="Z279" s="7"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="7"/>
       <c r="C280" s="23"/>
@@ -9036,7 +9054,7 @@
       <c r="Y280" s="7"/>
       <c r="Z280" s="7"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="7"/>
       <c r="C281" s="23"/>
@@ -9064,7 +9082,7 @@
       <c r="Y281" s="7"/>
       <c r="Z281" s="7"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="7"/>
       <c r="C282" s="23"/>
@@ -9092,7 +9110,7 @@
       <c r="Y282" s="7"/>
       <c r="Z282" s="7"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="7"/>
       <c r="C283" s="23"/>
@@ -9120,7 +9138,7 @@
       <c r="Y283" s="7"/>
       <c r="Z283" s="7"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="7"/>
       <c r="C284" s="23"/>
@@ -9148,7 +9166,7 @@
       <c r="Y284" s="7"/>
       <c r="Z284" s="7"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="7"/>
       <c r="C285" s="23"/>
@@ -9176,7 +9194,7 @@
       <c r="Y285" s="7"/>
       <c r="Z285" s="7"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="7"/>
       <c r="C286" s="23"/>
@@ -9204,7 +9222,7 @@
       <c r="Y286" s="7"/>
       <c r="Z286" s="7"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="7"/>
       <c r="C287" s="23"/>
@@ -9232,7 +9250,7 @@
       <c r="Y287" s="7"/>
       <c r="Z287" s="7"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="23"/>
@@ -9260,7 +9278,7 @@
       <c r="Y288" s="7"/>
       <c r="Z288" s="7"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="23"/>
@@ -9288,7 +9306,7 @@
       <c r="Y289" s="7"/>
       <c r="Z289" s="7"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="23"/>
@@ -9316,7 +9334,7 @@
       <c r="Y290" s="7"/>
       <c r="Z290" s="7"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="23"/>
@@ -9344,7 +9362,7 @@
       <c r="Y291" s="7"/>
       <c r="Z291" s="7"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="7"/>
       <c r="C292" s="23"/>
@@ -9372,7 +9390,7 @@
       <c r="Y292" s="7"/>
       <c r="Z292" s="7"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="23"/>
@@ -9400,7 +9418,7 @@
       <c r="Y293" s="7"/>
       <c r="Z293" s="7"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="23"/>
@@ -9428,7 +9446,7 @@
       <c r="Y294" s="7"/>
       <c r="Z294" s="7"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="23"/>
@@ -9456,7 +9474,7 @@
       <c r="Y295" s="7"/>
       <c r="Z295" s="7"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="23"/>
@@ -9484,7 +9502,7 @@
       <c r="Y296" s="7"/>
       <c r="Z296" s="7"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="23"/>
@@ -9512,7 +9530,7 @@
       <c r="Y297" s="7"/>
       <c r="Z297" s="7"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="23"/>
@@ -9540,7 +9558,7 @@
       <c r="Y298" s="7"/>
       <c r="Z298" s="7"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="7"/>
       <c r="C299" s="23"/>
@@ -9568,7 +9586,7 @@
       <c r="Y299" s="7"/>
       <c r="Z299" s="7"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="7"/>
       <c r="C300" s="23"/>
@@ -9596,7 +9614,7 @@
       <c r="Y300" s="7"/>
       <c r="Z300" s="7"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="7"/>
       <c r="C301" s="23"/>
@@ -9624,7 +9642,7 @@
       <c r="Y301" s="7"/>
       <c r="Z301" s="7"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="7"/>
       <c r="C302" s="23"/>
@@ -9652,7 +9670,7 @@
       <c r="Y302" s="7"/>
       <c r="Z302" s="7"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="7"/>
       <c r="C303" s="23"/>
@@ -9680,7 +9698,7 @@
       <c r="Y303" s="7"/>
       <c r="Z303" s="7"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="7"/>
       <c r="C304" s="23"/>
@@ -9708,7 +9726,7 @@
       <c r="Y304" s="7"/>
       <c r="Z304" s="7"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="7"/>
       <c r="C305" s="23"/>
@@ -9736,7 +9754,7 @@
       <c r="Y305" s="7"/>
       <c r="Z305" s="7"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="23"/>
@@ -9764,7 +9782,7 @@
       <c r="Y306" s="7"/>
       <c r="Z306" s="7"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="7"/>
       <c r="C307" s="23"/>
